--- a/Keyword Creation/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/Keyword Creation/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t xml:space="preserve">SE ADMITIRÁ LA SUBROGRACIÓN PROCESAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCUPE EN EL PRESENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA POSICION DE PARTE EJECUTANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCUPARÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA POSICIÓN DEL TRANSMITENTE PARTE EJECUTANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN NOMBRE Y REPRESENTACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÉNGASELE POR COMPARECIDA EN REPRESENTACION DE</t>
   </si>
   <si>
     <t xml:space="preserve">TICKETS</t>
@@ -382,7 +400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -411,6 +429,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -428,20 +450,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.9433198380567"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.5506072874494"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1338,53 +1360,177 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="D66" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="0" t="s">
+    <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="E67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>86</v>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
